--- a/biology/Zoologie/Fissilicreagris_macilenta/Fissilicreagris_macilenta.xlsx
+++ b/biology/Zoologie/Fissilicreagris_macilenta/Fissilicreagris_macilenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fissilicreagris macilenta est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[1]. Elle se rencontre dans les comtés de Mariposa, de San Mateo et de Santa Clara[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis. Elle se rencontre dans les comtés de Mariposa, de San Mateo et de Santa Clara.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 2,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 2,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Obisium macilentum par Simon en 1878. Elle est placée dans le genre Microcreagris par Beier en 1932[4] puis dans le genre Fissilicreagris par Muchmore en 1994[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Obisium macilentum par Simon en 1878. Elle est placée dans le genre Microcreagris par Beier en 1932 puis dans le genre Fissilicreagris par Muchmore en 1994.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1878 : Descriptions de quelques Cheliferidae de Californie. Annales de la Société Entomologique de France, sér. 5, vol. 8, p. 154-158 (texte intégral).</t>
         </is>
